--- a/data/trans_orig/P6716-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6716-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C62E8DF-E37A-4181-BC85-9E8F5C3A4CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3F2F8F9-1596-4B38-BD96-FA54E2D4477B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{34FE79C2-28EF-459C-8A9E-324F4DF44534}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ACF75099-BF58-47A7-92E1-358AD6FE4404}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -75,28 +75,28 @@
     <t>2,55%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
   </si>
   <si>
     <t>2,88%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
   </si>
   <si>
     <t>2,69%</t>
   </si>
   <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
   </si>
   <si>
     <t>Solo alguna vez</t>
@@ -105,1027 +105,1027 @@
     <t>4,6%</t>
   </si>
   <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
     <t>2,26%</t>
   </si>
   <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
   </si>
   <si>
     <t>5,39%</t>
   </si>
   <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si hablan con entusiasmo de su empresa a otras personas en 2015 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
   </si>
   <si>
     <t>3,99%</t>
   </si>
   <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
   </si>
   <si>
     <t>3,96%</t>
   </si>
   <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si hablan con entusiasmo de su empresa a otras personas en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
   </si>
   <si>
     <t>6,07%</t>
   </si>
   <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
   </si>
   <si>
     <t>24,68%</t>
   </si>
   <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
     <t>27,73%</t>
   </si>
   <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
   </si>
   <si>
     <t>26,14%</t>
   </si>
   <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
   </si>
   <si>
     <t>27,06%</t>
   </si>
   <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
   </si>
   <si>
     <t>40,7%</t>
   </si>
   <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
+    <t>43,41%</t>
   </si>
   <si>
     <t>39,35%</t>
   </si>
   <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
   </si>
   <si>
     <t>40,13%</t>
   </si>
   <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
   </si>
 </sst>
 </file>
@@ -1537,7 +1537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{116BBEA8-9576-4BAF-AEF1-B19628E54858}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A31D54-C62D-4B6D-8B19-3F1BC1CD00F3}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2053,10 +2053,10 @@
         <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2071,13 +2071,13 @@
         <v>176666</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>124</v>
@@ -2086,13 +2086,13 @@
         <v>132970</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>295</v>
@@ -2101,13 +2101,13 @@
         <v>309637</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2122,13 +2122,13 @@
         <v>236749</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>142</v>
@@ -2137,13 +2137,13 @@
         <v>146791</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>368</v>
@@ -2152,13 +2152,13 @@
         <v>383540</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2173,13 +2173,13 @@
         <v>440934</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>216</v>
@@ -2188,28 +2188,28 @@
         <v>234390</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>626</v>
       </c>
       <c r="N14" s="7">
-        <v>675324</v>
+        <v>675323</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2251,7 +2251,7 @@
         <v>1400</v>
       </c>
       <c r="N15" s="7">
-        <v>1486083</v>
+        <v>1486082</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -2265,7 +2265,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2277,13 +2277,13 @@
         <v>10911</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -2292,13 +2292,13 @@
         <v>4678</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -2307,13 +2307,13 @@
         <v>15588</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2364,7 +2364,7 @@
         <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2379,13 +2379,13 @@
         <v>43475</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>27</v>
@@ -2394,13 +2394,13 @@
         <v>31908</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>67</v>
@@ -2409,13 +2409,13 @@
         <v>75382</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2430,7 +2430,7 @@
         <v>70122</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>134</v>
@@ -2774,7 +2774,7 @@
         <v>185</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2789,13 +2789,13 @@
         <v>710895</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H26" s="7">
         <v>407</v>
@@ -2804,13 +2804,13 @@
         <v>446062</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M26" s="7">
         <v>1069</v>
@@ -2819,13 +2819,13 @@
         <v>1156957</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2881,7 +2881,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2900,7 +2900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D949AE17-C909-4080-93D5-8C4A4182BF08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F38B129-DAE8-44F1-8760-E8AE7D42A9A2}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2917,7 +2917,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3024,13 +3024,13 @@
         <v>8841</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -3039,10 +3039,10 @@
         <v>5232</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>202</v>
@@ -3111,7 +3111,7 @@
         <v>213</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3126,13 +3126,13 @@
         <v>38745</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H6" s="7">
         <v>17</v>
@@ -3141,13 +3141,13 @@
         <v>16415</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M6" s="7">
         <v>53</v>
@@ -3156,13 +3156,13 @@
         <v>55160</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3177,13 +3177,13 @@
         <v>34654</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H7" s="7">
         <v>22</v>
@@ -3192,13 +3192,13 @@
         <v>22031</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
@@ -3207,13 +3207,13 @@
         <v>56685</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,13 +3228,13 @@
         <v>47114</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H8" s="7">
         <v>19</v>
@@ -3243,13 +3243,13 @@
         <v>19276</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M8" s="7">
         <v>62</v>
@@ -3258,13 +3258,13 @@
         <v>66390</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3332,13 +3332,13 @@
         <v>35025</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>168</v>
+        <v>244</v>
       </c>
       <c r="H10" s="7">
         <v>32</v>
@@ -3347,13 +3347,13 @@
         <v>33342</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M10" s="7">
         <v>61</v>
@@ -3362,13 +3362,13 @@
         <v>68366</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,13 +3383,13 @@
         <v>57640</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H11" s="7">
         <v>43</v>
@@ -3398,13 +3398,13 @@
         <v>44650</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>207</v>
+        <v>255</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="M11" s="7">
         <v>95</v>
@@ -3413,13 +3413,13 @@
         <v>102290</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,13 +3434,13 @@
         <v>214944</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H12" s="7">
         <v>165</v>
@@ -3449,13 +3449,13 @@
         <v>171245</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>46</v>
+        <v>264</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="M12" s="7">
         <v>364</v>
@@ -3464,13 +3464,13 @@
         <v>386190</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>264</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3488,10 +3488,10 @@
         <v>265</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H13" s="7">
         <v>180</v>
@@ -3500,13 +3500,13 @@
         <v>179611</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M13" s="7">
         <v>444</v>
@@ -3515,13 +3515,13 @@
         <v>455059</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3536,13 +3536,13 @@
         <v>342140</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H14" s="7">
         <v>218</v>
@@ -3551,13 +3551,13 @@
         <v>223927</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M14" s="7">
         <v>539</v>
@@ -3566,13 +3566,13 @@
         <v>566067</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3628,7 +3628,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3640,13 +3640,13 @@
         <v>5489</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>286</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>244</v>
+        <v>65</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -3658,10 +3658,10 @@
         <v>154</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -3670,13 +3670,13 @@
         <v>14774</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3691,13 +3691,13 @@
         <v>11290</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -3706,13 +3706,13 @@
         <v>12315</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>70</v>
+        <v>295</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="M17" s="7">
         <v>22</v>
@@ -3724,10 +3724,10 @@
         <v>27</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3742,13 +3742,13 @@
         <v>62223</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="H18" s="7">
         <v>54</v>
@@ -3757,13 +3757,13 @@
         <v>55049</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>299</v>
+        <v>176</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>300</v>
+        <v>127</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M18" s="7">
         <v>106</v>
@@ -3772,13 +3772,13 @@
         <v>117272</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,13 +3793,13 @@
         <v>83355</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H19" s="7">
         <v>67</v>
@@ -3808,13 +3808,13 @@
         <v>68449</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M19" s="7">
         <v>145</v>
@@ -3823,13 +3823,13 @@
         <v>151803</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,13 +3844,13 @@
         <v>188251</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H20" s="7">
         <v>158</v>
@@ -3859,13 +3859,13 @@
         <v>163356</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M20" s="7">
         <v>334</v>
@@ -3874,13 +3874,13 @@
         <v>351607</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,13 +3948,13 @@
         <v>49355</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>324</v>
+        <v>243</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H22" s="7">
         <v>45</v>
@@ -3963,13 +3963,13 @@
         <v>47858</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M22" s="7">
         <v>87</v>
@@ -3978,13 +3978,13 @@
         <v>97213</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,13 +3999,13 @@
         <v>82695</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H23" s="7">
         <v>64</v>
@@ -4014,7 +4014,7 @@
         <v>66098</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>334</v>
+        <v>13</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>335</v>
@@ -4029,13 +4029,13 @@
         <v>148792</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>19</v>
+        <v>338</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,13 +4050,13 @@
         <v>315913</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>337</v>
+        <v>92</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H24" s="7">
         <v>236</v>
@@ -4065,13 +4065,13 @@
         <v>242710</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M24" s="7">
         <v>523</v>
@@ -4083,10 +4083,10 @@
         <v>136</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,13 +4101,13 @@
         <v>393457</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H25" s="7">
         <v>269</v>
@@ -4116,13 +4116,13 @@
         <v>270090</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M25" s="7">
         <v>645</v>
@@ -4131,13 +4131,13 @@
         <v>663547</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4152,10 +4152,10 @@
         <v>577505</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>355</v>
+        <v>281</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>356</v>
@@ -4244,7 +4244,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6716-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6716-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3F2F8F9-1596-4B38-BD96-FA54E2D4477B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F4A2692-466A-4695-BD62-FF6C3F8FB0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ACF75099-BF58-47A7-92E1-358AD6FE4404}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FE17A9DD-C6AD-4EBD-AF55-607D922ED8B4}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="365">
   <si>
     <t>Población según si hablan con entusiasmo de su empresa a otras personas en 2012 (Tasa respuesta: 33,92%)</t>
   </si>
@@ -75,1057 +75,1063 @@
     <t>2,55%</t>
   </si>
   <si>
-    <t>0,52%</t>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si hablan con entusiasmo de su empresa a otras personas en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
   </si>
   <si>
     <t>6,4%</t>
   </si>
   <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
   </si>
   <si>
     <t>21,08%</t>
   </si>
   <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si hablan con entusiasmo de su empresa a otras personas en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
     <t>24,52%</t>
   </si>
   <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
     <t>27,73%</t>
   </si>
   <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
   </si>
   <si>
     <t>26,14%</t>
   </si>
   <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
   </si>
   <si>
     <t>27,06%</t>
   </si>
   <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
   </si>
   <si>
     <t>40,7%</t>
   </si>
   <si>
-    <t>43,41%</t>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
   </si>
   <si>
     <t>39,35%</t>
   </si>
   <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
   </si>
 </sst>
 </file>
@@ -1537,7 +1543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A31D54-C62D-4B6D-8B19-3F1BC1CD00F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D0783F3-CE3E-4E38-898C-CF3AC5D9D7D6}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2053,10 +2059,10 @@
         <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2071,13 +2077,13 @@
         <v>176666</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>124</v>
@@ -2086,13 +2092,13 @@
         <v>132970</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>295</v>
@@ -2101,13 +2107,13 @@
         <v>309637</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2122,13 +2128,13 @@
         <v>236749</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>142</v>
@@ -2137,13 +2143,13 @@
         <v>146791</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>368</v>
@@ -2152,13 +2158,13 @@
         <v>383540</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2173,13 +2179,13 @@
         <v>440934</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>216</v>
@@ -2188,28 +2194,28 @@
         <v>234390</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>626</v>
       </c>
       <c r="N14" s="7">
-        <v>675323</v>
+        <v>675324</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2251,7 +2257,7 @@
         <v>1400</v>
       </c>
       <c r="N15" s="7">
-        <v>1486082</v>
+        <v>1486083</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -2265,7 +2271,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2277,13 +2283,13 @@
         <v>10911</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -2292,13 +2298,13 @@
         <v>4678</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -2361,10 +2367,10 @@
         <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2606,7 +2612,7 @@
         <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="M22" s="7">
         <v>65</v>
@@ -2615,13 +2621,13 @@
         <v>67701</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,13 +2642,13 @@
         <v>59285</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>38</v>
@@ -2651,13 +2657,13 @@
         <v>43557</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>93</v>
@@ -2666,13 +2672,13 @@
         <v>102841</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,13 +2693,13 @@
         <v>255002</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>187</v>
@@ -2702,13 +2708,13 @@
         <v>204294</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>429</v>
@@ -2717,13 +2723,13 @@
         <v>459296</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,13 +2744,13 @@
         <v>351462</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H25" s="7">
         <v>213</v>
@@ -2753,13 +2759,13 @@
         <v>222975</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M25" s="7">
         <v>546</v>
@@ -2768,13 +2774,13 @@
         <v>574437</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2789,13 +2795,13 @@
         <v>710895</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H26" s="7">
         <v>407</v>
@@ -2804,13 +2810,13 @@
         <v>446062</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M26" s="7">
         <v>1069</v>
@@ -2819,13 +2825,13 @@
         <v>1156957</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2881,7 +2887,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2900,7 +2906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F38B129-DAE8-44F1-8760-E8AE7D42A9A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F5D950-2AD2-4D17-85E6-93D058F7824A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2917,7 +2923,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3024,13 +3030,13 @@
         <v>8841</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -3039,13 +3045,13 @@
         <v>5232</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -3054,13 +3060,13 @@
         <v>14073</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3075,13 +3081,13 @@
         <v>13764</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -3090,13 +3096,13 @@
         <v>9133</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M5" s="7">
         <v>22</v>
@@ -3105,13 +3111,13 @@
         <v>22897</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3126,13 +3132,13 @@
         <v>38745</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H6" s="7">
         <v>17</v>
@@ -3141,13 +3147,13 @@
         <v>16415</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M6" s="7">
         <v>53</v>
@@ -3156,13 +3162,13 @@
         <v>55160</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3177,13 +3183,13 @@
         <v>34654</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H7" s="7">
         <v>22</v>
@@ -3192,13 +3198,13 @@
         <v>22031</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
@@ -3207,13 +3213,13 @@
         <v>56685</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,13 +3234,13 @@
         <v>47114</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H8" s="7">
         <v>19</v>
@@ -3243,13 +3249,13 @@
         <v>19276</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M8" s="7">
         <v>62</v>
@@ -3258,13 +3264,13 @@
         <v>66390</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3332,13 +3338,13 @@
         <v>35025</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H10" s="7">
         <v>32</v>
@@ -3347,13 +3353,13 @@
         <v>33342</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M10" s="7">
         <v>61</v>
@@ -3362,13 +3368,13 @@
         <v>68366</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,13 +3389,13 @@
         <v>57640</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H11" s="7">
         <v>43</v>
@@ -3398,13 +3404,13 @@
         <v>44650</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M11" s="7">
         <v>95</v>
@@ -3413,13 +3419,13 @@
         <v>102290</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,13 +3440,13 @@
         <v>214944</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H12" s="7">
         <v>165</v>
@@ -3449,13 +3455,13 @@
         <v>171245</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M12" s="7">
         <v>364</v>
@@ -3464,13 +3470,13 @@
         <v>386190</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>267</v>
+        <v>178</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3485,13 +3491,13 @@
         <v>275448</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H13" s="7">
         <v>180</v>
@@ -3500,13 +3506,13 @@
         <v>179611</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M13" s="7">
         <v>444</v>
@@ -3515,13 +3521,13 @@
         <v>455059</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3536,13 +3542,13 @@
         <v>342140</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="H14" s="7">
         <v>218</v>
@@ -3551,13 +3557,13 @@
         <v>223927</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M14" s="7">
         <v>539</v>
@@ -3566,13 +3572,13 @@
         <v>566067</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3628,7 +3634,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3640,13 +3646,13 @@
         <v>5489</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -3757,13 +3763,13 @@
         <v>55049</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>176</v>
+        <v>303</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>127</v>
+        <v>304</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M18" s="7">
         <v>106</v>
@@ -3772,13 +3778,13 @@
         <v>117272</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,13 +3799,13 @@
         <v>83355</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H19" s="7">
         <v>67</v>
@@ -3808,13 +3814,13 @@
         <v>68449</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M19" s="7">
         <v>145</v>
@@ -3823,13 +3829,13 @@
         <v>151803</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,13 +3850,13 @@
         <v>188251</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H20" s="7">
         <v>158</v>
@@ -3859,13 +3865,13 @@
         <v>163356</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M20" s="7">
         <v>334</v>
@@ -3874,13 +3880,13 @@
         <v>351607</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,13 +3954,13 @@
         <v>49355</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>243</v>
+        <v>328</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="H22" s="7">
         <v>45</v>
@@ -3963,13 +3969,13 @@
         <v>47858</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="M22" s="7">
         <v>87</v>
@@ -3978,13 +3984,13 @@
         <v>97213</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>330</v>
+        <v>70</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>292</v>
+        <v>333</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,13 +4005,13 @@
         <v>82695</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H23" s="7">
         <v>64</v>
@@ -4014,13 +4020,13 @@
         <v>66098</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>13</v>
+        <v>337</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="M23" s="7">
         <v>139</v>
@@ -4029,13 +4035,13 @@
         <v>148792</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>337</v>
+        <v>294</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>339</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,13 +4056,13 @@
         <v>315913</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>92</v>
+        <v>305</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H24" s="7">
         <v>236</v>
@@ -4065,13 +4071,13 @@
         <v>242710</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M24" s="7">
         <v>523</v>
@@ -4083,10 +4089,10 @@
         <v>136</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>306</v>
+        <v>346</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,13 +4107,13 @@
         <v>393457</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H25" s="7">
         <v>269</v>
@@ -4116,13 +4122,13 @@
         <v>270090</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M25" s="7">
         <v>645</v>
@@ -4131,13 +4137,13 @@
         <v>663547</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4152,13 +4158,13 @@
         <v>577505</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>281</v>
+        <v>358</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="H26" s="7">
         <v>395</v>
@@ -4167,13 +4173,13 @@
         <v>406559</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="M26" s="7">
         <v>935</v>
@@ -4182,13 +4188,13 @@
         <v>984064</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>360</v>
+        <v>277</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4244,7 +4250,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6716-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6716-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F4A2692-466A-4695-BD62-FF6C3F8FB0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{754741A7-5D70-4CBE-9FAB-5014A6B54F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FE17A9DD-C6AD-4EBD-AF55-607D922ED8B4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ADC2DD23-271C-4A09-8479-B74FAECAE61A}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="363">
   <si>
     <t>Población según si hablan con entusiasmo de su empresa a otras personas en 2012 (Tasa respuesta: 33,92%)</t>
   </si>
@@ -75,10 +75,10 @@
     <t>2,55%</t>
   </si>
   <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
   </si>
   <si>
     <t>2,88%</t>
@@ -87,16 +87,16 @@
     <t>0,75%</t>
   </si>
   <si>
-    <t>7,14%</t>
+    <t>6,97%</t>
   </si>
   <si>
     <t>2,69%</t>
   </si>
   <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
   </si>
   <si>
     <t>Solo alguna vez</t>
@@ -108,25 +108,25 @@
     <t>2,26%</t>
   </si>
   <si>
-    <t>8,78%</t>
+    <t>8,57%</t>
   </si>
   <si>
     <t>2,22%</t>
   </si>
   <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
   </si>
   <si>
     <t>3,58%</t>
   </si>
   <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -135,28 +135,28 @@
     <t>18,94%</t>
   </si>
   <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
   </si>
   <si>
     <t>28,16%</t>
   </si>
   <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
   </si>
   <si>
     <t>22,93%</t>
   </si>
   <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -165,28 +165,28 @@
     <t>24,23%</t>
   </si>
   <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
   </si>
   <si>
     <t>16,21%</t>
   </si>
   <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
   </si>
   <si>
     <t>20,76%</t>
   </si>
   <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -195,28 +195,28 @@
     <t>49,67%</t>
   </si>
   <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
   </si>
   <si>
     <t>50,53%</t>
   </si>
   <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
   </si>
   <si>
     <t>50,04%</t>
   </si>
   <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
   </si>
   <si>
     <t>100%</t>
@@ -231,907 +231,901 @@
     <t>1,68%</t>
   </si>
   <si>
-    <t>3,98%</t>
+    <t>3,93%</t>
   </si>
   <si>
     <t>3,47%</t>
   </si>
   <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si hablan con entusiasmo de su empresa a otras personas en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
     <t>2,2%</t>
   </si>
   <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si hablan con entusiasmo de su empresa a otras personas en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
   </si>
   <si>
     <t>40,13%</t>
   </si>
   <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
     <t>37,98%</t>
   </si>
   <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
+    <t>42,03%</t>
   </si>
 </sst>
 </file>
@@ -1543,7 +1537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D0783F3-CE3E-4E38-898C-CF3AC5D9D7D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA642FF6-728C-4045-82E8-09283027D432}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2304,7 +2298,7 @@
         <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -2313,13 +2307,13 @@
         <v>15588</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2367,10 +2361,10 @@
         <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2385,13 +2379,13 @@
         <v>43475</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>27</v>
@@ -2400,13 +2394,13 @@
         <v>31908</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>67</v>
@@ -2415,13 +2409,13 @@
         <v>75382</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2436,7 +2430,7 @@
         <v>70122</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>134</v>
@@ -2612,7 +2606,7 @@
         <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>65</v>
@@ -2621,13 +2615,13 @@
         <v>67701</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2642,13 +2636,13 @@
         <v>59285</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>38</v>
@@ -2657,13 +2651,13 @@
         <v>43557</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>93</v>
@@ -2672,13 +2666,13 @@
         <v>102841</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,13 +2687,13 @@
         <v>255002</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>187</v>
@@ -2708,13 +2702,13 @@
         <v>204294</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>429</v>
@@ -2723,13 +2717,13 @@
         <v>459296</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,13 +2738,13 @@
         <v>351462</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H25" s="7">
         <v>213</v>
@@ -2759,13 +2753,13 @@
         <v>222975</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M25" s="7">
         <v>546</v>
@@ -2774,13 +2768,13 @@
         <v>574437</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2795,13 +2789,13 @@
         <v>710895</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>407</v>
@@ -2810,13 +2804,13 @@
         <v>446062</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>1069</v>
@@ -2825,13 +2819,13 @@
         <v>1156957</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2887,7 +2881,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2906,7 +2900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F5D950-2AD2-4D17-85E6-93D058F7824A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9339A96B-620D-4374-99C6-C7D9110AB1FA}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2923,7 +2917,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3030,13 +3024,13 @@
         <v>8841</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -3045,13 +3039,13 @@
         <v>5232</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -3060,13 +3054,13 @@
         <v>14073</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3081,13 +3075,13 @@
         <v>13764</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -3096,13 +3090,13 @@
         <v>9133</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M5" s="7">
         <v>22</v>
@@ -3111,13 +3105,13 @@
         <v>22897</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3344,7 +3338,7 @@
         <v>242</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>243</v>
+        <v>168</v>
       </c>
       <c r="H10" s="7">
         <v>32</v>
@@ -3353,13 +3347,13 @@
         <v>33342</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M10" s="7">
         <v>61</v>
@@ -3368,13 +3362,13 @@
         <v>68366</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3389,10 +3383,10 @@
         <v>57640</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>251</v>
@@ -3407,10 +3401,10 @@
         <v>252</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M11" s="7">
         <v>95</v>
@@ -3419,13 +3413,13 @@
         <v>102290</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,13 +3434,13 @@
         <v>214944</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H12" s="7">
         <v>165</v>
@@ -3455,13 +3449,13 @@
         <v>171245</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M12" s="7">
         <v>364</v>
@@ -3470,13 +3464,13 @@
         <v>386190</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3491,13 +3485,13 @@
         <v>275448</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H13" s="7">
         <v>180</v>
@@ -3506,13 +3500,13 @@
         <v>179611</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="M13" s="7">
         <v>444</v>
@@ -3521,13 +3515,13 @@
         <v>455059</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3542,13 +3536,13 @@
         <v>342140</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="H14" s="7">
         <v>218</v>
@@ -3557,13 +3551,13 @@
         <v>223927</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="M14" s="7">
         <v>539</v>
@@ -3572,13 +3566,13 @@
         <v>566067</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3646,13 +3640,13 @@
         <v>5489</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>285</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>286</v>
+        <v>244</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -3664,10 +3658,10 @@
         <v>154</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -3676,13 +3670,13 @@
         <v>14774</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3697,13 +3691,13 @@
         <v>11290</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -3712,13 +3706,13 @@
         <v>12315</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>295</v>
+        <v>70</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="M17" s="7">
         <v>22</v>
@@ -3730,10 +3724,10 @@
         <v>27</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3748,13 +3742,13 @@
         <v>62223</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H18" s="7">
         <v>54</v>
@@ -3763,13 +3757,13 @@
         <v>55049</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="M18" s="7">
         <v>106</v>
@@ -3778,13 +3772,13 @@
         <v>117272</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3799,13 +3793,13 @@
         <v>83355</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H19" s="7">
         <v>67</v>
@@ -3814,13 +3808,13 @@
         <v>68449</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="M19" s="7">
         <v>145</v>
@@ -3829,13 +3823,13 @@
         <v>151803</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3850,13 +3844,13 @@
         <v>188251</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H20" s="7">
         <v>158</v>
@@ -3865,13 +3859,13 @@
         <v>163356</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="M20" s="7">
         <v>334</v>
@@ -3880,13 +3874,13 @@
         <v>351607</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3954,13 +3948,13 @@
         <v>49355</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H22" s="7">
         <v>45</v>
@@ -3969,13 +3963,13 @@
         <v>47858</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M22" s="7">
         <v>87</v>
@@ -3984,13 +3978,13 @@
         <v>97213</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,13 +3999,13 @@
         <v>82695</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H23" s="7">
         <v>64</v>
@@ -4020,13 +4014,13 @@
         <v>66098</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="M23" s="7">
         <v>139</v>
@@ -4035,13 +4029,13 @@
         <v>148792</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>340</v>
+        <v>19</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>212</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,13 +4050,13 @@
         <v>315913</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H24" s="7">
         <v>236</v>
@@ -4071,13 +4065,13 @@
         <v>242710</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="M24" s="7">
         <v>523</v>
@@ -4089,10 +4083,10 @@
         <v>136</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4107,13 +4101,13 @@
         <v>393457</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H25" s="7">
         <v>269</v>
@@ -4122,13 +4116,13 @@
         <v>270090</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M25" s="7">
         <v>645</v>
@@ -4137,13 +4131,13 @@
         <v>663547</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4158,13 +4152,13 @@
         <v>577505</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H26" s="7">
         <v>395</v>
@@ -4173,13 +4167,13 @@
         <v>406559</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="M26" s="7">
         <v>935</v>
@@ -4188,13 +4182,13 @@
         <v>984064</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>277</v>
+        <v>360</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4250,7 +4244,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6716-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6716-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{754741A7-5D70-4CBE-9FAB-5014A6B54F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61D763DE-48B7-4854-8632-25579D3EC30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ADC2DD23-271C-4A09-8479-B74FAECAE61A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1365987B-63CE-4C33-8767-AF10549438A7}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -1537,7 +1537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA642FF6-728C-4045-82E8-09283027D432}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA5DF24-EBEF-420D-B314-E09F1F1A401C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2900,7 +2900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9339A96B-620D-4374-99C6-C7D9110AB1FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D94DEC-2CD9-4213-9C68-45DFA90D83BB}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4077,7 +4077,7 @@
         <v>523</v>
       </c>
       <c r="N24" s="7">
-        <v>558622</v>
+        <v>558623</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>136</v>
@@ -4230,7 +4230,7 @@
         <v>2329</v>
       </c>
       <c r="N27" s="7">
-        <v>2452238</v>
+        <v>2452239</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
